--- a/file/result.xlsx
+++ b/file/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shining/Desktop/Github/Recursive-Text-Editing/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C956A4C9-BA82-0C44-B356-639B60029466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB7AB32-4E74-4340-83CF-01B7E7AD0359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25780" yWindow="-28660" windowWidth="26200" windowHeight="28660" xr2:uid="{87BC2D68-B60A-974D-9111-F7676C0F2620}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
